--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18AF31F-D8EC-4417-BF32-B597532B2DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF559D0-6803-4416-B6EB-497101A4D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>FT Synthesis Efficiency</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Energy In to IN</t>
+  </si>
+  <si>
+    <t>https://energy.nl/wp-content/uploads/technology-factsheets-ft-fuel-production-7.pdf</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +493,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,13 +516,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>0.33</v>
       </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -532,8 +538,11 @@
       <c r="I2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -553,7 +562,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
         <v>3</v>
       </c>
@@ -567,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>11</v>
       </c>
@@ -581,23 +590,29 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -606,40 +621,40 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11">
         <f>B8/B6</f>
         <v>42.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F13">
         <f>(1/B1)/(B1/((B8/(B8+B6))*B1))/G3</f>
         <v>2.714285714285714</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14">
         <f>(1/B1)/(B1/((B8/(B8+B6))*B1))/H4</f>
         <v>3.2571428571428567</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -653,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>10</v>
       </c>

--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF559D0-6803-4416-B6EB-497101A4D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D833-C1FD-495B-8501-4D644D9131CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
-    <sheet name="FT_relations_fuel_output" sheetId="4" r:id="rId1"/>
+    <sheet name="RWGS" sheetId="6" r:id="rId1"/>
+    <sheet name="FT_relations_fuel_output" sheetId="4" r:id="rId2"/>
+    <sheet name="Distillation" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>FT Synthesis Efficiency</t>
   </si>
@@ -83,9 +85,6 @@
     <t>Other Fuels (inlcuding non primary)</t>
   </si>
   <si>
-    <t>Heat per MWh FT fuels</t>
-  </si>
-  <si>
     <t>https://pubs.rsc.org/en/content/articlehtml/2020/ee/d0ee01187h?utm_source=chatgpt.com</t>
   </si>
   <si>
@@ -107,10 +106,124 @@
     <t>hydrogen input mean</t>
   </si>
   <si>
-    <t>Energy In to IN</t>
-  </si>
-  <si>
     <t>https://energy.nl/wp-content/uploads/technology-factsheets-ft-fuel-production-7.pdf</t>
+  </si>
+  <si>
+    <t>after getting the fuel from the FT synthesis and split it into the aimed fuel and other products</t>
+  </si>
+  <si>
+    <t>Heat per MWh FT fuels (output/excess heat)</t>
+  </si>
+  <si>
+    <t>Relations Out to Out</t>
+  </si>
+  <si>
+    <t>steam input??? Depending on fuel type</t>
+  </si>
+  <si>
+    <t>In Out</t>
+  </si>
+  <si>
+    <t>Out Out for other fules</t>
+  </si>
+  <si>
+    <t>Jet-Fuel</t>
+  </si>
+  <si>
+    <t>https://energy.nl/wp-content/uploads/technology-factsheets-rwgs-to-co-from-co2-and-h2-1.pdf?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>assumption: all is produced by power with efficiency 1</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>H2 in to CO out</t>
+  </si>
+  <si>
+    <t>H2 in to power in</t>
+  </si>
+  <si>
+    <t>H2 in to CO2 in</t>
+  </si>
+  <si>
+    <t>CO out to H2O out</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>MWh/PJ</t>
+  </si>
+  <si>
+    <t>PJ/MWh</t>
+  </si>
+  <si>
+    <t>t/PJ CO</t>
+  </si>
+  <si>
+    <t>MJ/m3 CO</t>
+  </si>
+  <si>
+    <t>t CO2/t FT fuels</t>
+  </si>
+  <si>
+    <t>CO Input</t>
+  </si>
+  <si>
+    <t>MJ/kg FT fuel</t>
+  </si>
+  <si>
+    <t>GJ/MWh</t>
+  </si>
+  <si>
+    <t>GJ/t FT fuel</t>
+  </si>
+  <si>
+    <t>MWh/ t FT Fuel</t>
+  </si>
+  <si>
+    <t>t FT fuel</t>
+  </si>
+  <si>
+    <t>PJ CO/PJ FT Fuel</t>
+  </si>
+  <si>
+    <t>PJ CO/ t  FT Fuel</t>
+  </si>
+  <si>
+    <t>t CO2/ t FT fuel</t>
+  </si>
+  <si>
+    <t>Energy In to IN (H2 to power)</t>
+  </si>
+  <si>
+    <t>Energy In to IN (H2 to CO)</t>
   </si>
 </sst>
 </file>
@@ -481,11 +594,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7160A-5877-4695-BC95-75FFDB1C20EB}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>277777.77778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>0.34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3.5999999999999998E-6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>0.86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>12.6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <f>E4/E9</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <f>E4/(E2+E3)</f>
+        <v>2.0975609756097557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>2.8982576753129519</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +771,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,250 +779,391 @@
         <v>0.6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.33</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0.6</v>
-      </c>
-      <c r="H3">
-        <v>0.25</v>
-      </c>
-      <c r="I3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>0.15</v>
-      </c>
-      <c r="H5">
-        <v>0.25</v>
-      </c>
-      <c r="I5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
       </c>
       <c r="B8">
         <f>(0.79+0.92)/2</f>
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>0.53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F11">
         <f>B8/B6</f>
         <v>42.75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F13">
-        <f>(1/B1)/(B1/((B8/(B8+B6))*B1))/G3</f>
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F14">
-        <f>(1/B1)/(B1/((B8/(B8+B6))*B1))/H4</f>
-        <v>3.2571428571428567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
+        <f>B8/B10</f>
+        <v>1.6132075471698113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <f>(1/B1)/(B1/((B8/(B8+B6))*B1))</f>
+        <v>1.6285714285714283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>A15*1000/1000</f>
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>A16/$O$2</f>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>1000/A16</f>
+        <v>23.255813953488371</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>B10/A19</f>
+        <v>2.2790000000000001E-2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*FT_relations_fuel_output!$B$1</f>
+        <v>4.0404040404040407</v>
+      </c>
+      <c r="G20">
+        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*FT_relations_fuel_output!$B$1</f>
+        <v>3.3057851239669418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f>A20*RWGS!E5</f>
+        <v>3.57803</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*FT_relations_fuel_output!$B$1</f>
+        <v>4.0404040404040407</v>
+      </c>
+      <c r="G24">
+        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*FT_relations_fuel_output!$B$1</f>
+        <v>3.3057851239669418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*0.5</f>
+        <v>3.3670033670033672</v>
+      </c>
+      <c r="G28">
+        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*0.5</f>
+        <v>2.7548209366391183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DBCE2-8C3F-4EB2-AF2D-A4BD0A32CEDF}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>D5</f>
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <f>D5/(D6+D8)</f>
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <f>I2/(I3+I5)</f>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>B6</f>
+        <v>0.6</v>
+      </c>
+      <c r="C19">
+        <f>(B6/(B7+B8))</f>
         <v>1.4999999999999998</v>
       </c>
-      <c r="H16">
-        <f>1/($B$2*(1-$B$3))*$B$1</f>
-        <v>4.0404040404040407</v>
-      </c>
-      <c r="I16">
-        <f>1/($B$2*$B$3)*$B$1</f>
-        <v>3.3057851239669418</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F19" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <f>G3/(G4+G5)</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="H20">
-        <f>1/($B$2*(1-$B$3))*$B$1</f>
-        <v>4.0404040404040407</v>
-      </c>
-      <c r="I20">
-        <f>1/($B$2*$B$3)*$B$1</f>
-        <v>3.3057851239669418</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="G24">
-        <f>H4/(H3+H5)</f>
+      <c r="B23">
+        <f>C7</f>
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <f>(C7/(C6+C8))</f>
         <v>1</v>
-      </c>
-      <c r="H24">
-        <f>1/($B$2*(1-$B$3))*0.5</f>
-        <v>3.3670033670033672</v>
-      </c>
-      <c r="I24">
-        <f>1/($B$2*$B$3)*0.5</f>
-        <v>2.7548209366391183</v>
       </c>
     </row>
   </sheetData>

--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D833-C1FD-495B-8501-4D644D9131CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0850A56-2364-45BA-863A-1AAB280452B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="RWGS" sheetId="6" r:id="rId1"/>
     <sheet name="FT_relations_fuel_output" sheetId="4" r:id="rId2"/>
     <sheet name="Distillation" sheetId="5" r:id="rId3"/>
+    <sheet name="Steam_input_distillation" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>FT Synthesis Efficiency</t>
   </si>
@@ -224,6 +225,90 @@
   </si>
   <si>
     <t>Energy In to IN (H2 to CO)</t>
+  </si>
+  <si>
+    <t>inverted</t>
+  </si>
+  <si>
+    <t>factor spine MWh steam/Mwh raw methanol</t>
+  </si>
+  <si>
+    <t>as input to input</t>
+  </si>
+  <si>
+    <t>MWh steam/Mwh methanol</t>
+  </si>
+  <si>
+    <t>liter/MWh Methanol</t>
+  </si>
+  <si>
+    <t>t/MWh</t>
+  </si>
+  <si>
+    <t>Wasser/MWh methanol</t>
+  </si>
+  <si>
+    <t>MWh/t</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>steam temp</t>
+  </si>
+  <si>
+    <t>kWh/kg</t>
+  </si>
+  <si>
+    <t>GJ/t</t>
+  </si>
+  <si>
+    <t>water temp</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>kWh/l</t>
+  </si>
+  <si>
+    <t>Raw methanol/E-methanol</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Verdampfungsenhaltpie (kJ)</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>Energy content</t>
+  </si>
+  <si>
+    <t>kJ/(kg K)</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>kg/l</t>
+  </si>
+  <si>
+    <t>t/t</t>
+  </si>
+  <si>
+    <t>Energy need to transform 1 liter of water into steam</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>water/methanol</t>
+  </si>
+  <si>
+    <t>UPDATEN!!!</t>
   </si>
 </sst>
 </file>
@@ -597,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7160A-5877-4695-BC95-75FFDB1C20EB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -762,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,4 +1254,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67205E5-EB70-4948-A022-C1F756C779AE}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>3.6</v>
+      </c>
+      <c r="H2">
+        <v>0.79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2">
+        <f>((R5-R4)*R2+R3)/1000</f>
+        <v>2.6341000000000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3">
+        <f>L2/1000</f>
+        <v>2.6340999999999999E-3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3">
+        <v>2257</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>4.367</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4">
+        <f>L3/$D$2</f>
+        <v>7.3169444444444443E-4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>1.2578616352201257</v>
+      </c>
+      <c r="H5">
+        <f>H4/H2</f>
+        <v>5.5278481012658229</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>A5/$D$2</f>
+        <v>5.5277777777777777</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>A2/A6</f>
+        <v>9.9497487437185936E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>A9*1000</f>
+        <v>99.497487437185939</v>
+      </c>
+      <c r="C12">
+        <f>A12*L4</f>
+        <v>7.2801758793969856E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>$D$5*A12</f>
+        <v>125.15407224803262</v>
+      </c>
+      <c r="C15">
+        <f>$D$5/C12</f>
+        <v>17.277901743828668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>1/A15</f>
+        <v>7.9901515151515144E-3</v>
+      </c>
+      <c r="C18">
+        <f>1/C15</f>
+        <v>5.7877398241206031E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0850A56-2364-45BA-863A-1AAB280452B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119E5AB-862A-4B58-B000-97AE6CF85911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="RWGS" sheetId="6" r:id="rId1"/>
     <sheet name="FT_relations_fuel_output" sheetId="4" r:id="rId2"/>
     <sheet name="Distillation" sheetId="5" r:id="rId3"/>
-    <sheet name="Steam_input_distillation" sheetId="7" r:id="rId4"/>
+    <sheet name="Steam_input" sheetId="7" r:id="rId4"/>
+    <sheet name="heat_recovery" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>FT Synthesis Efficiency</t>
   </si>
@@ -119,18 +120,12 @@
     <t>Relations Out to Out</t>
   </si>
   <si>
-    <t>steam input??? Depending on fuel type</t>
-  </si>
-  <si>
     <t>In Out</t>
   </si>
   <si>
     <t>Out Out for other fules</t>
   </si>
   <si>
-    <t>Jet-Fuel</t>
-  </si>
-  <si>
     <t>https://energy.nl/wp-content/uploads/technology-factsheets-rwgs-to-co-from-co2-and-h2-1.pdf?utm_source=chatgpt.com</t>
   </si>
   <si>
@@ -158,9 +153,6 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>assumption: all is produced by power with efficiency 1</t>
-  </si>
-  <si>
     <t>Relation</t>
   </si>
   <si>
@@ -227,88 +219,103 @@
     <t>Energy In to IN (H2 to CO)</t>
   </si>
   <si>
-    <t>inverted</t>
-  </si>
-  <si>
-    <t>factor spine MWh steam/Mwh raw methanol</t>
-  </si>
-  <si>
-    <t>as input to input</t>
-  </si>
-  <si>
-    <t>MWh steam/Mwh methanol</t>
-  </si>
-  <si>
-    <t>liter/MWh Methanol</t>
-  </si>
-  <si>
-    <t>t/MWh</t>
-  </si>
-  <si>
-    <t>Wasser/MWh methanol</t>
-  </si>
-  <si>
-    <t>MWh/t</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>steam temp</t>
-  </si>
-  <si>
-    <t>kWh/kg</t>
-  </si>
-  <si>
-    <t>GJ/t</t>
-  </si>
-  <si>
     <t>water temp</t>
   </si>
   <si>
     <t>MWh</t>
   </si>
   <si>
-    <t>kWh/l</t>
-  </si>
-  <si>
-    <t>Raw methanol/E-methanol</t>
-  </si>
-  <si>
-    <t>Methanol</t>
-  </si>
-  <si>
-    <t>Verdampfungsenhaltpie (kJ)</t>
-  </si>
-  <si>
     <t>GJ</t>
   </si>
   <si>
-    <t>Energy content</t>
-  </si>
-  <si>
     <t>kJ/(kg K)</t>
   </si>
   <si>
     <t>MJ</t>
   </si>
   <si>
-    <t>kg/l</t>
-  </si>
-  <si>
-    <t>t/t</t>
-  </si>
-  <si>
     <t>Energy need to transform 1 liter of water into steam</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>water/methanol</t>
-  </si>
-  <si>
-    <t>UPDATEN!!!</t>
+    <t>H2 to Steam</t>
+  </si>
+  <si>
+    <t>as steam: https://www.sciencedirect.com/science/article/pii/S0360544215011767?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Steam need in RWGS</t>
+  </si>
+  <si>
+    <t>Steam/H2 Input in RWGS</t>
+  </si>
+  <si>
+    <t>liter water necessary</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0360544215011767?via%3Dihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure </t>
+  </si>
+  <si>
+    <t>Mbar</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>steam temp (sturated)</t>
+  </si>
+  <si>
+    <t>Verdampfungsenhaltpie (kJ) at 2,5 Mbar</t>
+  </si>
+  <si>
+    <t>Specific enthalpy of superheated steam at 900C and 2,5 Mbar</t>
+  </si>
+  <si>
+    <t>Specific enthalpy of saturated liquid</t>
+  </si>
+  <si>
+    <t>kJ/kg</t>
+  </si>
+  <si>
+    <t>power to steam eff</t>
+  </si>
+  <si>
+    <t>power need</t>
+  </si>
+  <si>
+    <t>power to liter water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to model heat recovery, we have to transform heat into "boiler_power" to create flexibility for the model </t>
+  </si>
+  <si>
+    <t>efficiency heat exchange</t>
+  </si>
+  <si>
+    <t>thus, 1 MWh of steam can replace 1*efficiency of power for the steam generation</t>
+  </si>
+  <si>
+    <t>l/PJ</t>
+  </si>
+  <si>
+    <t>l/MWh</t>
+  </si>
+  <si>
+    <t>neglected in the model</t>
+  </si>
+  <si>
+    <t>MWh H2 / MWh output fuels</t>
+  </si>
+  <si>
+    <t>in in for H2</t>
   </si>
 </sst>
 </file>
@@ -680,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7160A-5877-4695-BC95-75FFDB1C20EB}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -707,19 +714,19 @@
         <v>277777.77778</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -727,27 +734,27 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0.86</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -755,16 +762,16 @@
         <v>12.6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -772,44 +779,64 @@
         <v>4.3</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>6.4000000000000001E-2</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>64000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>E11*A3</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <f>E4/E9</f>
@@ -818,24 +845,33 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <f>E4/(E2+E3)</f>
-        <v>2.0975609756097557</v>
+        <f>E4/E3</f>
+        <v>12.285714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>2.8982576753129519</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>44</v>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <f>E4/E2</f>
+        <v>3.0714285714285712</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -845,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -924,25 +960,22 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0.53</v>
       </c>
       <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -953,7 +986,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -972,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <f>(1/B1)/(B1/((B8/(B8+B6))*B1))</f>
@@ -985,111 +1018,62 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>A16/$O$2</f>
         <v>11.944444444444445</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>1000/A16</f>
         <v>23.255813953488371</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <f>1/(B2*(1-B3))</f>
+        <v>6.7340067340067344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>B10/A19</f>
         <v>2.2790000000000001E-2</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20">
-        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*FT_relations_fuel_output!$B$1</f>
-        <v>4.0404040404040407</v>
-      </c>
-      <c r="G20">
-        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*FT_relations_fuel_output!$B$1</f>
-        <v>3.3057851239669418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>A20*RWGS!E5</f>
         <v>3.57803</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F24">
-        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*FT_relations_fuel_output!$B$1</f>
-        <v>4.0404040404040407</v>
-      </c>
-      <c r="G24">
-        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*FT_relations_fuel_output!$B$1</f>
-        <v>3.3057851239669418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F28">
-        <f>1/(FT_relations_fuel_output!$B$2*(1-FT_relations_fuel_output!$B$3))*0.5</f>
-        <v>3.3670033670033672</v>
-      </c>
-      <c r="G28">
-        <f>1/(FT_relations_fuel_output!$B$2*FT_relations_fuel_output!$B$3)*0.5</f>
-        <v>2.7548209366391183</v>
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <f>1/(B2*B3)</f>
+        <v>5.5096418732782366</v>
       </c>
     </row>
   </sheetData>
@@ -1101,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DBCE2-8C3F-4EB2-AF2D-A4BD0A32CEDF}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,6 +1096,15 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>0.42/67.7</f>
+        <v>6.2038404726735595E-3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
@@ -1190,10 +1183,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="D14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1201,13 +1197,17 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <f>D5</f>
-        <v>0.6</v>
+        <f>1/D5</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C15">
         <f>D5/(D6+D8)</f>
         <v>1.4999999999999998</v>
       </c>
+      <c r="D15">
+        <f>1/A2</f>
+        <v>161.1904761904762</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1222,8 +1222,8 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <f>B6</f>
-        <v>0.6</v>
+        <f>1/B6</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C19">
         <f>(B6/(B7+B8))</f>
@@ -1243,8 +1243,8 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <f>C7</f>
-        <v>0.5</v>
+        <f>1/C7</f>
+        <v>2</v>
       </c>
       <c r="C23">
         <f>(C7/(C6+C8))</f>
@@ -1258,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67205E5-EB70-4948-A022-C1F756C779AE}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,205 +1270,226 @@
     <col min="18" max="18" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.55000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>3.6</v>
       </c>
-      <c r="H2">
-        <v>0.79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
+      <c r="G2">
+        <v>0.99</v>
       </c>
       <c r="L2">
-        <f>((R5-R4)*R2+R3)/1000</f>
-        <v>2.6341000000000001</v>
+        <f>((R5-R4)*R2+R3+(R8-(R9+R3)))/1000</f>
+        <v>3.5829180999999997</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="R2">
         <v>4.1900000000000004</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L3">
         <f>L2/1000</f>
-        <v>2.6340999999999999E-3</v>
+        <v>3.5829180999999996E-3</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="R3">
-        <v>2257</v>
+        <v>1509.3</v>
       </c>
       <c r="S3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4">
-        <v>4.367</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L4">
         <f>L3/$D$2</f>
-        <v>7.3169444444444443E-4</v>
+        <v>9.952550277777777E-4</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="R4">
         <v>10</v>
       </c>
       <c r="S4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>RWGS!E4/RWGS!E2</f>
+        <v>3.0714285714285712</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>223.99</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6">
+        <v>2.5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="H5">
-        <f>H4/H2</f>
-        <v>5.5278481012658229</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8">
+        <v>3650</v>
+      </c>
+      <c r="S8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>A2/L4</f>
+        <v>281.33492641096097</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="R5">
-        <v>100</v>
-      </c>
-      <c r="S5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f>A5/$D$2</f>
-        <v>5.5277777777777777</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f>A2/A6</f>
-        <v>9.9497487437185936E-2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9">
+        <v>963.7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f>A9*1000</f>
-        <v>99.497487437185939</v>
-      </c>
-      <c r="C12">
-        <f>A12*L4</f>
-        <v>7.2801758793969856E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <f>A2/G2</f>
+        <v>0.28282828282828287</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f>$D$5*A12</f>
-        <v>125.15407224803262</v>
-      </c>
-      <c r="C15">
-        <f>$D$5/C12</f>
-        <v>17.277901743828668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f>1/A15</f>
-        <v>7.9901515151515144E-3</v>
-      </c>
-      <c r="C18">
-        <f>1/C15</f>
-        <v>5.7877398241206031E-2</v>
+        <f>A12/A9</f>
+        <v>1.0053081088664422E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1279197-D616-44B9-866D-8C1D57DBF724}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f>1/(1*A4*A7)</f>
+        <v>1.1883541295306002</v>
       </c>
     </row>
   </sheetData>

--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119E5AB-862A-4B58-B000-97AE6CF85911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930AA62-86AE-4850-8245-79673D05C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="RWGS" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>FT Synthesis Efficiency</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>in in for H2</t>
+  </si>
+  <si>
+    <t>eff generation steam</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,6 +876,10 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
+      <c r="E19" t="str">
+        <f>G12</f>
+        <v>neglected in the model</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -883,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C12CA-4172-4238-9024-85B54A8487B0}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DBCE2-8C3F-4EB2-AF2D-A4BD0A32CEDF}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1268,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1277,6 +1284,9 @@
       <c r="D1" t="s">
         <v>50</v>
       </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
       <c r="G1" t="s">
         <v>81</v>
       </c>
@@ -1294,8 +1304,12 @@
       <c r="D2">
         <v>3.6</v>
       </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
       <c r="G2">
-        <v>0.99</v>
+        <f>1/F2</f>
+        <v>1.0101010101010102</v>
       </c>
       <c r="L2">
         <f>((R5-R4)*R2+R3+(R8-(R9+R3)))/1000</f>
@@ -1424,7 +1438,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>A2/G2</f>
-        <v>0.28282828282828287</v>
+        <v>0.2772</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -1438,7 +1452,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>A12/A9</f>
-        <v>1.0053081088664422E-3</v>
+        <v>9.8530247749999979E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1450,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1279197-D616-44B9-866D-8C1D57DBF724}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_FT-synthesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930AA62-86AE-4850-8245-79673D05C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931EB027-9390-4E71-B497-0251182494DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="RWGS" sheetId="6" r:id="rId1"/>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DBCE2-8C3F-4EB2-AF2D-A4BD0A32CEDF}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1212,11 +1212,11 @@
         <v>1.4999999999999998</v>
       </c>
       <c r="D15">
-        <f>1/A2</f>
+        <f>1/$A$2</f>
         <v>161.1904761904762</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1236,8 +1236,12 @@
         <f>(B6/(B7+B8))</f>
         <v>1.4999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f>1/$A$2</f>
+        <v>161.1904761904762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1256,6 +1260,10 @@
       <c r="C23">
         <f>(C7/(C6+C8))</f>
         <v>1</v>
+      </c>
+      <c r="D23">
+        <f>1/$A$2</f>
+        <v>161.1904761904762</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1279197-D616-44B9-866D-8C1D57DBF724}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
